--- a/Average Down Payments.xlsx
+++ b/Average Down Payments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b1f0f6119d4d585/Desktop/Spring 2024/INFO 5602 - Information Visualization/Group Project/Final Products/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05B9635B-B2F5-4EB9-AB4B-9EA8CA20D797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{05B9635B-B2F5-4EB9-AB4B-9EA8CA20D797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48E246C-28DB-428D-92AE-0D5896F0D4F7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{209D5553-A702-4758-86EC-9229C89F9F27}"/>
+    <workbookView xWindow="43335" yWindow="2265" windowWidth="19185" windowHeight="11175" xr2:uid="{209D5553-A702-4758-86EC-9229C89F9F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Florida</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Hawaii</t>
   </si>
   <si>
-    <t>Washington, D.C.</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
@@ -195,6 +192,12 @@
   </si>
   <si>
     <t>Avg Down Payment %</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEA0D08-2143-4EA9-A6DB-4C06251BABBB}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,13 +584,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -614,7 +617,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>98670</v>
@@ -625,7 +628,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>86752</v>
@@ -636,7 +639,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>84244</v>
@@ -647,7 +650,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>79206</v>
@@ -658,7 +661,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>75304</v>
@@ -669,7 +672,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>72833</v>
@@ -680,7 +683,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>71547</v>
@@ -691,7 +694,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>71500</v>
@@ -702,7 +705,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>64985</v>
@@ -713,7 +716,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>55015</v>
@@ -724,7 +727,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>50843</v>
@@ -735,7 +738,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>48534</v>
@@ -746,7 +749,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>47342</v>
@@ -757,7 +760,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>45285</v>
@@ -768,7 +771,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>43488</v>
@@ -779,7 +782,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>40412</v>
@@ -790,7 +793,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>38500</v>
@@ -801,7 +804,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>37630</v>
@@ -812,7 +815,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>35572</v>
@@ -823,7 +826,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>34072</v>
@@ -834,7 +837,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>33306</v>
@@ -845,7 +848,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>32389</v>
@@ -856,7 +859,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>31867</v>
@@ -867,7 +870,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>29704</v>
@@ -878,7 +881,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>29617</v>
@@ -889,7 +892,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>28333</v>
@@ -900,7 +903,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>27348</v>
@@ -911,7 +914,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>26461</v>
@@ -922,7 +925,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>25969</v>
@@ -933,7 +936,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>25723</v>
@@ -944,7 +947,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>25402</v>
@@ -955,7 +958,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>24543</v>
@@ -966,7 +969,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>24357</v>
@@ -977,7 +980,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>23153</v>
@@ -988,7 +991,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>21354</v>
@@ -999,7 +1002,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>18780</v>
@@ -1010,7 +1013,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>18325</v>
@@ -1021,7 +1024,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>17832</v>
@@ -1032,7 +1035,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>17576</v>
@@ -1043,7 +1046,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>17548</v>
@@ -1054,7 +1057,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>17548</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>17477</v>
@@ -1076,7 +1079,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>15044</v>
@@ -1087,7 +1090,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>13177</v>
@@ -1098,7 +1101,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>11996</v>
@@ -1109,7 +1112,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>8788</v>
@@ -1120,7 +1123,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>6611</v>
@@ -1131,13 +1134,24 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>6470</v>
       </c>
       <c r="C51">
         <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>5814</v>
+      </c>
+      <c r="C52">
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Average Down Payments.xlsx
+++ b/Average Down Payments.xlsx
@@ -250,6 +250,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEA0D08-2143-4EA9-A6DB-4C06251BABBB}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
